--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_DaiNamHoaBinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_DaiNamHoaBinh.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -231,7 +231,16 @@
     <t>125.212.203.114/16060</t>
   </si>
   <si>
-    <t>Thiết bị lỗi nguồn</t>
+    <t>Nạp lại FW cho thiết bị</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Thiết bị off GPS</t>
   </si>
 </sst>
 </file>
@@ -589,9 +598,24 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -611,21 +635,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -934,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -967,43 +976,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1048,58 +1057,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="60" t="s">
+      <c r="L4" s="58"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="Q4" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="R4" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="59" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="54" t="s">
+      <c r="U4" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="54" t="s">
+      <c r="V4" s="58" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -1124,23 +1133,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="54"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="59"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,21 +1177,31 @@
         <v>65</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K6" s="43" t="s">
         <v>64</v>
       </c>
       <c r="L6" s="43"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="54" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1213,7 +1232,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="55"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1242,7 +1261,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="55"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1271,7 +1290,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="55"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1300,7 +1319,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="55"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1329,7 +1348,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="55"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1358,7 +1377,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="54" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1389,7 +1408,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="55"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1418,7 +1437,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="55"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1447,7 +1466,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="55"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1495,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="56"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1595,7 +1614,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -2064,7 +2083,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -2128,7 +2147,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -2707,13 +2726,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2725,6 +2737,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2768,43 +2787,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2849,58 +2868,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="60" t="s">
+      <c r="L4" s="58"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="Q4" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="R4" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="59" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="54" t="s">
+      <c r="U4" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="54" t="s">
+      <c r="V4" s="58" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -2925,23 +2944,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="54"/>
+      <c r="J5" s="58"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="59"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2967,7 +2986,7 @@
       <c r="R6" s="38"/>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="54" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -2998,7 +3017,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="55"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3027,7 +3046,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="55"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3056,7 +3075,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="55"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3085,7 +3104,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="55"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3114,7 +3133,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="55"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3143,7 +3162,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="54" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3174,7 +3193,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="55"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3203,7 +3222,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="55"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3232,7 +3251,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="55"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3261,7 +3280,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="56"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -4492,13 +4511,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4510,6 +4522,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_DaiNamHoaBinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_DaiNamHoaBinh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102E" sheetId="24" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -437,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -592,12 +592,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -610,31 +631,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -943,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -976,43 +973,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1057,58 +1054,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="59" t="s">
+      <c r="S4" s="65" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="53" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -1133,23 +1130,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="59"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1201,7 +1198,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="54" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1232,7 +1229,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="55"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1261,7 +1258,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="55"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1290,7 +1287,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="55"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1319,7 +1316,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="55"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1348,7 +1345,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="55"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1377,7 +1374,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="54" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1408,7 +1405,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="55"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1437,7 +1434,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="55"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1466,7 +1463,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="55"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1495,7 +1492,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="56"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2726,6 +2723,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2737,13 +2741,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2754,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2787,43 +2784,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="57"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2868,58 +2865,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="57" t="s">
+      <c r="P4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="59" t="s">
+      <c r="S4" s="65" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="53" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -2944,49 +2941,75 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="58"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="59"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44278</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44281</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="39">
+        <v>860906041166643</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>62</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="I6" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="54" t="s">
+      <c r="U6" s="61" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3005,7 +3028,7 @@
       <c r="F7" s="51"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="53"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="40"/>
       <c r="K7" s="1"/>
       <c r="L7" s="40"/>
@@ -3017,7 +3040,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="55"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3034,7 +3057,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="40"/>
       <c r="K8" s="41"/>
       <c r="L8" s="40"/>
@@ -3046,7 +3069,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="55"/>
+      <c r="U8" s="62"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3063,7 +3086,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
@@ -3075,7 +3098,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="55"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3092,7 +3115,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -3104,7 +3127,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="55"/>
+      <c r="U10" s="62"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3133,7 +3156,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="55"/>
+      <c r="U11" s="62"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3162,7 +3185,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="54" t="s">
+      <c r="U12" s="61" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3193,7 +3216,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="55"/>
+      <c r="U13" s="62"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3222,7 +3245,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="55"/>
+      <c r="U14" s="62"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3251,7 +3274,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="55"/>
+      <c r="U15" s="62"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3280,7 +3303,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="56"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3399,7 +3422,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3868,7 +3891,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -3932,7 +3955,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4511,6 +4534,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4522,13 +4552,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
